--- a/Pendencias Migração.xlsx
+++ b/Pendencias Migração.xlsx
@@ -2351,10 +2351,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2685,7 +2685,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2710,7 +2710,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -2724,7 +2724,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -2772,7 +2772,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -2784,7 +2784,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2796,19 +2796,19 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -2816,19 +2816,19 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
@@ -2836,7 +2836,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -2877,7 +2877,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>754</v>
       </c>
     </row>
